--- a/00_Modelo3D_OpenSees/Excel_ETABS2OpenSees.xlsx
+++ b/00_Modelo3D_OpenSees/Excel_ETABS2OpenSees.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Concrete Beam Rebar Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Concrete Column Rebar Data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Frame Assignments - Sections" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Frame Sections" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mass Summary by Diaphragm" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Material Properties - Concrete" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Modal Participating Mass Ratios" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Objects and Elements - Frames" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Objects and Elements - Joints" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Objects and Elements - Shells" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Shell Assignments - Sections" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Shell Loads - Uniform" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Shell Sections - Slab" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Tributary Area and LLRF" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concrete Beam Rebar Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concrete Column Rebar Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Frame Assignments - Sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Frame Sections" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mass Summary by Diaphragm" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Material Properties - Concrete" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Modal Participating Mass Ratios" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Objects and Elements - Frames" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Objects and Elements - Joints" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Objects and Elements - Shells" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shell Assignments - Sections" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shell Loads - Uniform" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shell Sections - Slab" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tributary Area and LLRF" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
